--- a/dazhongdianping_meishi/大众点评.xlsx
+++ b/dazhongdianping_meishi/大众点评.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>类型</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>爱车</t>
+  </si>
+  <si>
+    <t>https://m.dianping.com/shop/75688386</t>
   </si>
   <si>
     <t>医疗健康</t>
@@ -177,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -208,7 +211,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,13 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -238,7 +241,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,82 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -344,37 +347,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,13 +473,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,127 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +538,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,21 +584,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -597,6 +594,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,22 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,124 +643,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,22 +769,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1116,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1584,7 +1587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1603,10 +1606,16 @@
       <c r="F17">
         <v>0</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>85</v>
@@ -1626,7 +1635,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>90</v>
@@ -1646,7 +1655,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>33954</v>
@@ -1681,6 +1690,7 @@
     <hyperlink ref="G14" r:id="rId13" display="https://m.dianping.com/shop/41100768"/>
     <hyperlink ref="G15" r:id="rId14" display="https://m.dianping.com/shop/18687630"/>
     <hyperlink ref="G16" r:id="rId15" display="https://m.dianping.com/shop/10928690"/>
+    <hyperlink ref="G17" r:id="rId16" display="https://m.dianping.com/shop/75688386"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/dazhongdianping_meishi/大众点评.xlsx
+++ b/dazhongdianping_meishi/大众点评.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9960"/>
+    <workbookView windowWidth="20385" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>类型</t>
   </si>
@@ -55,6 +55,45 @@
     <t>i.icon-call</t>
   </si>
   <si>
+    <t>defaultPic</t>
+  </si>
+  <si>
+    <t>dishtags</t>
+  </si>
+  <si>
+    <t>matchText</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>priceText</t>
+  </si>
+  <si>
+    <t>regionName</t>
+  </si>
+  <si>
+    <t>reviewCount</t>
+  </si>
+  <si>
+    <t>shopPower</t>
+  </si>
+  <si>
+    <t>tagList</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
     <t>电影院</t>
   </si>
   <si>
@@ -64,6 +103,12 @@
     <t>div.cnt&gt;div:nth-child(2).comment&gt;span</t>
   </si>
   <si>
+    <t>branchName</t>
+  </si>
+  <si>
+    <t>shopType</t>
+  </si>
+  <si>
     <t>演出场馆</t>
   </si>
   <si>
@@ -118,12 +163,12 @@
     <t>https://m.dianping.com/shop/80529179</t>
   </si>
   <si>
+    <t>i.i-add</t>
+  </si>
+  <si>
     <t>i.i-tel</t>
   </si>
   <si>
-    <t>i.i-add</t>
-  </si>
-  <si>
     <t>结婚</t>
   </si>
   <si>
@@ -169,10 +214,22 @@
     <t>医疗健康</t>
   </si>
   <si>
+    <t>https://m.dianping.com/shop/38279099</t>
+  </si>
+  <si>
     <t>家装</t>
   </si>
   <si>
+    <t>https://m.dianping.com/shop/97328347</t>
+  </si>
+  <si>
     <t>榛果民宿</t>
+  </si>
+  <si>
+    <t>http://iphx.meituan.com/native/channel/housing/1129281</t>
+  </si>
+  <si>
+    <t>p.location</t>
   </si>
 </sst>
 </file>
@@ -180,12 +237,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,8 +267,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +277,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,28 +313,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -288,21 +346,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,14 +362,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,7 +376,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,175 +418,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,26 +609,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,17 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -624,17 +675,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,152 +708,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,6 +862,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1113,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1124,9 +1195,21 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="66.875" customWidth="1"/>
     <col min="8" max="8" width="38.75" customWidth="1"/>
     <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="4.5" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="9.75" customWidth="1"/>
+    <col min="18" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="19" width="4.75" customWidth="1"/>
+    <col min="20" max="20" width="3.375" customWidth="1"/>
+    <col min="21" max="21" width="12.75" customWidth="1"/>
+    <col min="22" max="22" width="10.875" customWidth="1"/>
+    <col min="23" max="23" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1158,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1186,10 +1269,49 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>136</v>
@@ -1207,15 +1329,57 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>25461</v>
@@ -1233,15 +1397,15 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -1259,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -1270,7 +1434,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>60</v>
@@ -1288,18 +1452,18 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -1317,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -1328,7 +1492,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>15</v>
@@ -1346,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -1357,7 +1521,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>45</v>
@@ -1375,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -1386,7 +1550,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>35</v>
@@ -1404,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -1415,7 +1579,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>70</v>
@@ -1433,18 +1597,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>55</v>
@@ -1462,18 +1626,18 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -1491,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -1502,7 +1666,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>95</v>
@@ -1520,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -1531,7 +1695,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>80</v>
@@ -1549,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -1560,7 +1724,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>75</v>
@@ -1578,18 +1742,18 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>65</v>
@@ -1606,16 +1770,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>49</v>
+      <c r="G17" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>85</v>
@@ -1632,10 +1799,19 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>90</v>
@@ -1652,10 +1828,19 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>33954</v>
@@ -1671,6 +1856,12 @@
       </c>
       <c r="F20">
         <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1678,8 +1869,8 @@
     <hyperlink ref="G2" r:id="rId1" display="https://m.dianping.com/shop/18293915"/>
     <hyperlink ref="G3" r:id="rId2" display="https://m.dianping.com/movie/cinema/79215468"/>
     <hyperlink ref="G4" r:id="rId3" display="https://m.dianping.com/myshow/ajax/shop/detail?shopId=67587184&amp;sellChannel=1&amp;cityId=3602"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://m.dianping.com/shop/68579015"/>
-    <hyperlink ref="G6" r:id="rId5" display="https://m.dianping.com/hotelm/ajax/hotelInfo?shopId=5160730"/>
+    <hyperlink ref="G5" r:id="rId4" display="https://m.dianping.com/shop/68579015" tooltip="https://m.dianping.com/shop/68579015"/>
+    <hyperlink ref="G6" r:id="rId5" display="https://m.dianping.com/hotelm/ajax/hotelInfo?shopId=5160730" tooltip="https://m.dianping.com/hotelm/ajax/hotelInfo?shopId=5160730"/>
     <hyperlink ref="G7" r:id="rId6" display="https://m.dianping.com/shop/96131527"/>
     <hyperlink ref="G8" r:id="rId7" display="https://m.dianping.com/shop/24093890"/>
     <hyperlink ref="G9" r:id="rId8" display="https://m.dianping.com/shop/21789042"/>
@@ -1690,7 +1881,10 @@
     <hyperlink ref="G14" r:id="rId13" display="https://m.dianping.com/shop/41100768"/>
     <hyperlink ref="G15" r:id="rId14" display="https://m.dianping.com/shop/18687630"/>
     <hyperlink ref="G16" r:id="rId15" display="https://m.dianping.com/shop/10928690"/>
-    <hyperlink ref="G17" r:id="rId16" display="https://m.dianping.com/shop/75688386"/>
+    <hyperlink ref="G17" r:id="rId16" display="https://m.dianping.com/shop/75688386" tooltip="https://m.dianping.com/shop/75688386"/>
+    <hyperlink ref="G18" r:id="rId17" display="https://m.dianping.com/shop/38279099"/>
+    <hyperlink ref="G19" r:id="rId18" display="https://m.dianping.com/shop/97328347" tooltip="https://m.dianping.com/shop/97328347"/>
+    <hyperlink ref="G20" r:id="rId19" display="http://iphx.meituan.com/native/channel/housing/1129281" tooltip="http://iphx.meituan.com/native/channel/housing/1129281"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
